--- a/Product_table.xlsx
+++ b/Product_table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="157">
   <si>
     <t>PRODUCT_ID</t>
   </si>
@@ -459,6 +459,33 @@
   </si>
   <si>
     <t xml:space="preserve">Apple ME182HN/A Airport Time Capsule 3 TB </t>
+  </si>
+  <si>
+    <t>PRODUCT_PIC_NAME</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>harddisk</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>software</t>
   </si>
 </sst>
 </file>
@@ -841,11 +868,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A101"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +884,11 @@
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -882,8 +910,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1000001</v>
       </c>
@@ -905,8 +936,11 @@
       <c r="G2" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1000002</v>
       </c>
@@ -928,8 +962,11 @@
       <c r="G3" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1000003</v>
       </c>
@@ -951,8 +988,11 @@
       <c r="G4" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1000004</v>
       </c>
@@ -974,8 +1014,11 @@
       <c r="G5" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1000005</v>
       </c>
@@ -997,8 +1040,11 @@
       <c r="G6" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1000006</v>
       </c>
@@ -1020,8 +1066,11 @@
       <c r="G7" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000007</v>
       </c>
@@ -1043,8 +1092,11 @@
       <c r="G8" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1000008</v>
       </c>
@@ -1066,8 +1118,11 @@
       <c r="G9" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1000009</v>
       </c>
@@ -1089,8 +1144,11 @@
       <c r="G10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1000010</v>
       </c>
@@ -1112,8 +1170,11 @@
       <c r="G11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1000011</v>
       </c>
@@ -1135,8 +1196,11 @@
       <c r="G12" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1000012</v>
       </c>
@@ -1158,8 +1222,11 @@
       <c r="G13" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1000013</v>
       </c>
@@ -1181,8 +1248,11 @@
       <c r="G14" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1000014</v>
       </c>
@@ -1204,8 +1274,11 @@
       <c r="G15" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1000015</v>
       </c>
@@ -1227,8 +1300,11 @@
       <c r="G16" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1000016</v>
       </c>
@@ -1250,8 +1326,11 @@
       <c r="G17" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1000017</v>
       </c>
@@ -1273,8 +1352,11 @@
       <c r="G18" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1000018</v>
       </c>
@@ -1296,8 +1378,11 @@
       <c r="G19" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1000019</v>
       </c>
@@ -1319,8 +1404,11 @@
       <c r="G20" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1000020</v>
       </c>
@@ -1342,8 +1430,11 @@
       <c r="G21" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1000021</v>
       </c>
@@ -1365,8 +1456,11 @@
       <c r="G22" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1000022</v>
       </c>
@@ -1388,8 +1482,11 @@
       <c r="G23" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1000023</v>
       </c>
@@ -1411,8 +1508,11 @@
       <c r="G24" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1000024</v>
       </c>
@@ -1434,8 +1534,11 @@
       <c r="G25" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1000025</v>
       </c>
@@ -1457,8 +1560,11 @@
       <c r="G26" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1000026</v>
       </c>
@@ -1480,8 +1586,11 @@
       <c r="G27" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1000027</v>
       </c>
@@ -1503,8 +1612,11 @@
       <c r="G28" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1000028</v>
       </c>
@@ -1526,8 +1638,11 @@
       <c r="G29" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1000029</v>
       </c>
@@ -1549,8 +1664,11 @@
       <c r="G30" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1000030</v>
       </c>
@@ -1572,8 +1690,11 @@
       <c r="G31" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1000031</v>
       </c>
@@ -1595,8 +1716,11 @@
       <c r="G32" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1000032</v>
       </c>
@@ -1618,8 +1742,11 @@
       <c r="G33" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1000033</v>
       </c>
@@ -1641,8 +1768,11 @@
       <c r="G34" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1000034</v>
       </c>
@@ -1664,8 +1794,11 @@
       <c r="G35" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1000035</v>
       </c>
@@ -1687,8 +1820,11 @@
       <c r="G36" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1000036</v>
       </c>
@@ -1710,8 +1846,11 @@
       <c r="G37" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1000037</v>
       </c>
@@ -1733,8 +1872,11 @@
       <c r="G38" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1000038</v>
       </c>
@@ -1756,8 +1898,11 @@
       <c r="G39" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1000039</v>
       </c>
@@ -1779,8 +1924,11 @@
       <c r="G40" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1000040</v>
       </c>
@@ -1802,8 +1950,11 @@
       <c r="G41" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1000041</v>
       </c>
@@ -1825,8 +1976,11 @@
       <c r="G42" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1000042</v>
       </c>
@@ -1848,8 +2002,11 @@
       <c r="G43" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1000043</v>
       </c>
@@ -1871,8 +2028,11 @@
       <c r="G44" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1000044</v>
       </c>
@@ -1894,8 +2054,11 @@
       <c r="G45" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1000045</v>
       </c>
@@ -1917,8 +2080,11 @@
       <c r="G46" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1000046</v>
       </c>
@@ -1940,8 +2106,11 @@
       <c r="G47" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1000047</v>
       </c>
@@ -1963,8 +2132,11 @@
       <c r="G48" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1000048</v>
       </c>
@@ -1986,8 +2158,11 @@
       <c r="G49" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1000049</v>
       </c>
@@ -2009,8 +2184,11 @@
       <c r="G50" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1000050</v>
       </c>
@@ -2032,8 +2210,11 @@
       <c r="G51" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1000051</v>
       </c>
@@ -2055,8 +2236,11 @@
       <c r="G52" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1000052</v>
       </c>
@@ -2078,8 +2262,11 @@
       <c r="G53" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1000053</v>
       </c>
@@ -2101,8 +2288,11 @@
       <c r="G54" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1000054</v>
       </c>
@@ -2124,8 +2314,11 @@
       <c r="G55" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>1000055</v>
       </c>
@@ -2147,8 +2340,11 @@
       <c r="G56" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1000056</v>
       </c>
@@ -2170,8 +2366,11 @@
       <c r="G57" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1000057</v>
       </c>
@@ -2193,8 +2392,11 @@
       <c r="G58" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1000058</v>
       </c>
@@ -2216,8 +2418,11 @@
       <c r="G59" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1000059</v>
       </c>
@@ -2239,8 +2444,11 @@
       <c r="G60" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1000060</v>
       </c>
@@ -2262,8 +2470,11 @@
       <c r="G61" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1000061</v>
       </c>
@@ -2285,8 +2496,11 @@
       <c r="G62" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1000062</v>
       </c>
@@ -2308,8 +2522,11 @@
       <c r="G63" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>1000063</v>
       </c>
@@ -2331,8 +2548,11 @@
       <c r="G64" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1000064</v>
       </c>
@@ -2354,8 +2574,11 @@
       <c r="G65" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1000065</v>
       </c>
@@ -2377,8 +2600,11 @@
       <c r="G66" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1000066</v>
       </c>
@@ -2400,8 +2626,11 @@
       <c r="G67" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1000067</v>
       </c>
@@ -2423,8 +2652,11 @@
       <c r="G68" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>1000068</v>
       </c>
@@ -2446,8 +2678,11 @@
       <c r="G69" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1000069</v>
       </c>
@@ -2469,8 +2704,11 @@
       <c r="G70" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1000070</v>
       </c>
@@ -2492,8 +2730,11 @@
       <c r="G71" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1000071</v>
       </c>
@@ -2515,8 +2756,11 @@
       <c r="G72" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1000072</v>
       </c>
@@ -2538,8 +2782,11 @@
       <c r="G73" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>1000073</v>
       </c>
@@ -2561,8 +2808,11 @@
       <c r="G74" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1000074</v>
       </c>
@@ -2584,8 +2834,11 @@
       <c r="G75" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>1000075</v>
       </c>
@@ -2607,8 +2860,11 @@
       <c r="G76" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1000076</v>
       </c>
@@ -2630,8 +2886,11 @@
       <c r="G77" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1000077</v>
       </c>
@@ -2653,8 +2912,11 @@
       <c r="G78" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>1000078</v>
       </c>
@@ -2676,8 +2938,11 @@
       <c r="G79" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1000079</v>
       </c>
@@ -2699,8 +2964,11 @@
       <c r="G80" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>1000080</v>
       </c>
@@ -2722,8 +2990,11 @@
       <c r="G81" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1000081</v>
       </c>
@@ -2745,8 +3016,11 @@
       <c r="G82" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1000082</v>
       </c>
@@ -2768,8 +3042,11 @@
       <c r="G83" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>1000083</v>
       </c>
@@ -2791,8 +3068,11 @@
       <c r="G84" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1000084</v>
       </c>
@@ -2814,8 +3094,11 @@
       <c r="G85" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>1000085</v>
       </c>
@@ -2837,8 +3120,11 @@
       <c r="G86" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1000086</v>
       </c>
@@ -2860,8 +3146,11 @@
       <c r="G87" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1000087</v>
       </c>
@@ -2883,8 +3172,11 @@
       <c r="G88" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1000088</v>
       </c>
@@ -2906,8 +3198,11 @@
       <c r="G89" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1000089</v>
       </c>
@@ -2929,8 +3224,11 @@
       <c r="G90" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>1000090</v>
       </c>
@@ -2952,8 +3250,11 @@
       <c r="G91" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1000091</v>
       </c>
@@ -2975,8 +3276,11 @@
       <c r="G92" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1000092</v>
       </c>
@@ -2998,8 +3302,11 @@
       <c r="G93" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1000093</v>
       </c>
@@ -3021,8 +3328,11 @@
       <c r="G94" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1000094</v>
       </c>
@@ -3044,8 +3354,11 @@
       <c r="G95" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1000095</v>
       </c>
@@ -3067,8 +3380,11 @@
       <c r="G96" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>1000096</v>
       </c>
@@ -3090,8 +3406,11 @@
       <c r="G97" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1000097</v>
       </c>
@@ -3113,8 +3432,11 @@
       <c r="G98" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>1000098</v>
       </c>
@@ -3136,8 +3458,11 @@
       <c r="G99" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>1000099</v>
       </c>
@@ -3159,8 +3484,11 @@
       <c r="G100" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1000100</v>
       </c>
@@ -3182,17 +3510,20 @@
       <c r="G101" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
